--- a/data/SanFrancisco_GDP.xlsx
+++ b/data/SanFrancisco_GDP.xlsx
@@ -1,30 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whelvey\Documents\GitHub\inflation_cr_expansion\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\inflation_cr_expansion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2FFFDA26-A3B3-405D-8A6D-3D027BF8B95B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2625CB9B-30A0-4096-8005-287F18852CC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FRED Graph" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="114210"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -64,7 +55,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
@@ -412,11 +403,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A25" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -477,7 +468,7 @@
         <v>36892</v>
       </c>
       <c r="B12" s="2">
-        <v>241522.56700000001</v>
+        <v>240223.33100000001</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -485,7 +476,7 @@
         <v>37257</v>
       </c>
       <c r="B13" s="2">
-        <v>241069.448</v>
+        <v>238126.36199999999</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -493,7 +484,7 @@
         <v>37622</v>
       </c>
       <c r="B14" s="2">
-        <v>250266.606</v>
+        <v>246289.538</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -501,7 +492,7 @@
         <v>37987</v>
       </c>
       <c r="B15" s="2">
-        <v>261820.63399999999</v>
+        <v>256414.07</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -509,7 +500,7 @@
         <v>38353</v>
       </c>
       <c r="B16" s="2">
-        <v>284589.37900000002</v>
+        <v>278166.39299999998</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -517,7 +508,7 @@
         <v>38718</v>
       </c>
       <c r="B17" s="2">
-        <v>302385.82799999998</v>
+        <v>296377.34100000001</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -525,7 +516,7 @@
         <v>39083</v>
       </c>
       <c r="B18" s="2">
-        <v>312831.69</v>
+        <v>307604.98</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -533,7 +524,7 @@
         <v>39448</v>
       </c>
       <c r="B19" s="2">
-        <v>328924.83399999997</v>
+        <v>324695.02899999998</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -541,7 +532,7 @@
         <v>39814</v>
       </c>
       <c r="B20" s="2">
-        <v>311520.08899999998</v>
+        <v>309329.272</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -549,7 +540,7 @@
         <v>40179</v>
       </c>
       <c r="B21" s="2">
-        <v>318298.158</v>
+        <v>316779.48100000003</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -557,7 +548,7 @@
         <v>40544</v>
       </c>
       <c r="B22" s="2">
-        <v>331635.33299999998</v>
+        <v>329715.79200000002</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -565,7 +556,7 @@
         <v>40909</v>
       </c>
       <c r="B23" s="2">
-        <v>366308.51500000001</v>
+        <v>363995.87099999998</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -573,7 +564,7 @@
         <v>41275</v>
       </c>
       <c r="B24" s="2">
-        <v>386700.71799999999</v>
+        <v>382609.21399999998</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -581,7 +572,7 @@
         <v>41640</v>
       </c>
       <c r="B25" s="2">
-        <v>419485.44199999998</v>
+        <v>412207.01199999999</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -589,7 +580,7 @@
         <v>42005</v>
       </c>
       <c r="B26" s="2">
-        <v>452979.875</v>
+        <v>443406.28100000002</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -597,7 +588,7 @@
         <v>42370</v>
       </c>
       <c r="B27" s="2">
-        <v>484077.304</v>
+        <v>472395.54499999998</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -605,7 +596,7 @@
         <v>42736</v>
       </c>
       <c r="B28" s="2">
-        <v>528286.84400000004</v>
+        <v>519358.95</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -613,7 +604,7 @@
         <v>43101</v>
       </c>
       <c r="B29" s="2">
-        <v>562155.76399999997</v>
+        <v>562046.31099999999</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -621,7 +612,15 @@
         <v>43466</v>
       </c>
       <c r="B30" s="2">
-        <v>591945.45600000001</v>
+        <v>595294.62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B31" s="2">
+        <v>588335.54299999995</v>
       </c>
     </row>
   </sheetData>
